--- a/Clincians_Intervention_Split_Keep_Group.xlsx
+++ b/Clincians_Intervention_Split_Keep_Group.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://leeds365-my.sharepoint.com/personal/hssaas_leeds_ac_uk/Documents/1_Tasks/1_Task_Data_Groupings_Before_CPRD/Implementation/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://leeds365-my.sharepoint.com/personal/hssaas_leeds_ac_uk/Documents/1_Tasks/1_Paper_codelist/Code/Framework_GCAF/GCAF_DynAIRx/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="7" documentId="13_ncr:1_{B987568B-E225-4BF0-8364-2AF3772BB52F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E8F317B2-8500-4C2A-8E42-98AE8D12A00A}"/>
+  <xr:revisionPtr revIDLastSave="9" documentId="13_ncr:1_{B987568B-E225-4BF0-8364-2AF3772BB52F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A1631C9E-61C9-4D55-8222-3EB8AA6B505A}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="505" uniqueCount="353">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="505" uniqueCount="354">
   <si>
     <t>eFI2 Deficits</t>
   </si>
@@ -810,9 +810,6 @@
     <t>Vitiligo</t>
   </si>
   <si>
-    <t>Comments</t>
-  </si>
-  <si>
     <t>Liverpool list doesn't include chronic abdo pain. We can include this but would need chronicity, by which I mean 2 or more codes recorded at least 12 months apart</t>
   </si>
   <si>
@@ -1084,6 +1081,12 @@
   </si>
   <si>
     <t>I'd prefer schizophrenia and bipolar to be separate due to their differing outcomes (schizophrenia has poorer outcomes)</t>
+  </si>
+  <si>
+    <t>Comments_eFI</t>
+  </si>
+  <si>
+    <t>Comments_LW</t>
   </si>
 </sst>
 </file>
@@ -1538,8 +1541,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D183"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="D30" sqref="D30"/>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1555,13 +1558,13 @@
         <v>0</v>
       </c>
       <c r="B1" s="8" t="s">
-        <v>261</v>
+        <v>352</v>
       </c>
       <c r="C1" s="4" t="s">
         <v>1</v>
       </c>
       <c r="D1" s="6" t="s">
-        <v>261</v>
+        <v>353</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="76.5" x14ac:dyDescent="0.2">
@@ -1569,13 +1572,13 @@
         <v>2</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="C2" s="5" t="s">
         <v>79</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -1586,7 +1589,7 @@
         <v>80</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="51" x14ac:dyDescent="0.2">
@@ -1594,13 +1597,13 @@
         <v>4</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="C4" s="5" t="s">
         <v>81</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
@@ -1608,13 +1611,13 @@
         <v>5</v>
       </c>
       <c r="B5" s="19" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="C5" s="5" t="s">
         <v>82</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
@@ -1622,13 +1625,13 @@
         <v>6</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C6" s="5" t="s">
         <v>83</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
@@ -1636,13 +1639,13 @@
         <v>7</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C7" s="10" t="s">
         <v>84</v>
       </c>
       <c r="D7" s="21" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
@@ -1650,7 +1653,7 @@
         <v>8</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C8" s="10" t="s">
         <v>85</v>
@@ -1662,7 +1665,7 @@
         <v>9</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="C9" s="10" t="s">
         <v>86</v>
@@ -1674,13 +1677,13 @@
         <v>10</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="C10" s="5" t="s">
         <v>87</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="51" x14ac:dyDescent="0.2">
@@ -1688,13 +1691,13 @@
         <v>11</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="C11" s="5" t="s">
         <v>88</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="63.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1702,13 +1705,13 @@
         <v>12</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="C12" s="11" t="s">
         <v>89</v>
       </c>
       <c r="D12" s="22" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
@@ -1716,7 +1719,7 @@
         <v>13</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="C13" s="11" t="s">
         <v>90</v>
@@ -1728,7 +1731,7 @@
         <v>14</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="C14" s="11" t="s">
         <v>91</v>
@@ -1740,7 +1743,7 @@
         <v>15</v>
       </c>
       <c r="B15" s="9" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="C15" s="11" t="s">
         <v>92</v>
@@ -1752,13 +1755,13 @@
         <v>16</v>
       </c>
       <c r="B16" s="9" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="C16" s="5" t="s">
         <v>93</v>
       </c>
       <c r="D16" s="7" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
@@ -1766,13 +1769,13 @@
         <v>17</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="C17" s="5" t="s">
         <v>94</v>
       </c>
       <c r="D17" s="7" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
@@ -1780,13 +1783,13 @@
         <v>18</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="C18" s="5" t="s">
         <v>95</v>
       </c>
       <c r="D18" s="7" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
@@ -1794,13 +1797,13 @@
         <v>19</v>
       </c>
       <c r="B19" s="9" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="C19" s="5" t="s">
         <v>96</v>
       </c>
       <c r="D19" s="7" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
@@ -1808,13 +1811,13 @@
         <v>20</v>
       </c>
       <c r="B20" s="9" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="C20" s="5" t="s">
         <v>97</v>
       </c>
       <c r="D20" s="7" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
@@ -1822,13 +1825,13 @@
         <v>21</v>
       </c>
       <c r="B21" s="9" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="C21" s="13" t="s">
         <v>98</v>
       </c>
       <c r="D21" s="7" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
@@ -1836,13 +1839,13 @@
         <v>22</v>
       </c>
       <c r="B22" s="9" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="C22" s="5" t="s">
         <v>99</v>
       </c>
       <c r="D22" s="7" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
@@ -1850,13 +1853,13 @@
         <v>23</v>
       </c>
       <c r="B23" s="9" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="C23" s="14" t="s">
         <v>100</v>
       </c>
       <c r="D23" s="7" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
@@ -1864,13 +1867,13 @@
         <v>24</v>
       </c>
       <c r="B24" s="9" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="C24" s="14" t="s">
         <v>101</v>
       </c>
       <c r="D24" s="7" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.2">
@@ -1878,13 +1881,13 @@
         <v>25</v>
       </c>
       <c r="B25" s="9" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="C25" s="15" t="s">
         <v>102</v>
       </c>
       <c r="D25" s="20" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.2">
@@ -1892,7 +1895,7 @@
         <v>26</v>
       </c>
       <c r="B26" s="9" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="C26" s="15" t="s">
         <v>103</v>
@@ -1904,13 +1907,13 @@
         <v>27</v>
       </c>
       <c r="B27" s="9" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="C27" s="5" t="s">
         <v>104</v>
       </c>
       <c r="D27" s="7" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.2">
@@ -1918,13 +1921,13 @@
         <v>28</v>
       </c>
       <c r="B28" s="9" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="C28" s="5" t="s">
         <v>105</v>
       </c>
       <c r="D28" s="7" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="63.75" x14ac:dyDescent="0.2">
@@ -1932,13 +1935,13 @@
         <v>29</v>
       </c>
       <c r="B29" s="9" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="C29" s="5" t="s">
         <v>106</v>
       </c>
       <c r="D29" s="7" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.2">
@@ -1946,13 +1949,13 @@
         <v>30</v>
       </c>
       <c r="B30" s="9" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="C30" s="5" t="s">
         <v>107</v>
       </c>
       <c r="D30" s="7" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="31" spans="1:4" ht="38.25" x14ac:dyDescent="0.2">
@@ -1960,13 +1963,13 @@
         <v>31</v>
       </c>
       <c r="B31" s="9" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="C31" s="5" t="s">
         <v>108</v>
       </c>
       <c r="D31" s="20" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.2">
@@ -1974,7 +1977,7 @@
         <v>32</v>
       </c>
       <c r="B32" s="9" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="C32" s="5" t="s">
         <v>109</v>
@@ -1986,7 +1989,7 @@
         <v>33</v>
       </c>
       <c r="B33" s="9" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="C33" s="5" t="s">
         <v>110</v>
@@ -1998,7 +2001,7 @@
         <v>34</v>
       </c>
       <c r="B34" s="9" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="C34" s="5" t="s">
         <v>111</v>
@@ -2010,7 +2013,7 @@
         <v>35</v>
       </c>
       <c r="B35" s="9" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="C35" s="5" t="s">
         <v>112</v>
@@ -2022,7 +2025,7 @@
         <v>36</v>
       </c>
       <c r="B36" s="9" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="C36" s="5" t="s">
         <v>113</v>
@@ -2034,13 +2037,13 @@
         <v>37</v>
       </c>
       <c r="B37" s="9" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="C37" s="5" t="s">
         <v>114</v>
       </c>
       <c r="D37" s="7" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
     </row>
     <row r="38" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
@@ -2048,13 +2051,13 @@
         <v>38</v>
       </c>
       <c r="B38" s="9" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="C38" s="5" t="s">
         <v>115</v>
       </c>
       <c r="D38" s="7" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.2">
@@ -2062,13 +2065,13 @@
         <v>39</v>
       </c>
       <c r="B39" s="9" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="C39" s="5" t="s">
         <v>116</v>
       </c>
       <c r="D39" s="7" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="40" spans="1:4" ht="51" x14ac:dyDescent="0.2">
@@ -2076,13 +2079,13 @@
         <v>40</v>
       </c>
       <c r="B40" s="9" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="C40" s="5" t="s">
         <v>117</v>
       </c>
       <c r="D40" s="7" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.2">
@@ -2090,13 +2093,13 @@
         <v>41</v>
       </c>
       <c r="B41" s="9" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="C41" s="16" t="s">
         <v>118</v>
       </c>
       <c r="D41" s="20" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.2">
@@ -2104,7 +2107,7 @@
         <v>42</v>
       </c>
       <c r="B42" s="9" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="C42" s="16" t="s">
         <v>119</v>
@@ -2116,13 +2119,13 @@
         <v>43</v>
       </c>
       <c r="B43" s="9" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="C43" s="5" t="s">
         <v>120</v>
       </c>
       <c r="D43" s="7" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.2">
@@ -2130,13 +2133,13 @@
         <v>44</v>
       </c>
       <c r="B44" s="9" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="C44" s="5" t="s">
         <v>121</v>
       </c>
       <c r="D44" s="7" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="45" spans="1:4" ht="51" x14ac:dyDescent="0.2">
@@ -2144,13 +2147,13 @@
         <v>45</v>
       </c>
       <c r="B45" s="9" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="C45" s="5" t="s">
         <v>122</v>
       </c>
       <c r="D45" s="7" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.2">
@@ -2158,13 +2161,13 @@
         <v>46</v>
       </c>
       <c r="B46" s="9" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="C46" s="5" t="s">
         <v>123</v>
       </c>
       <c r="D46" s="7" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.2">
@@ -2172,13 +2175,13 @@
         <v>47</v>
       </c>
       <c r="B47" s="9" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="C47" s="5" t="s">
         <v>124</v>
       </c>
       <c r="D47" s="7" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="48" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
@@ -2186,13 +2189,13 @@
         <v>48</v>
       </c>
       <c r="B48" s="9" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="C48" s="5" t="s">
         <v>125</v>
       </c>
       <c r="D48" s="7" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.2">
@@ -2200,13 +2203,13 @@
         <v>49</v>
       </c>
       <c r="B49" s="9" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="C49" s="5" t="s">
         <v>126</v>
       </c>
       <c r="D49" s="7" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.2">
@@ -2214,13 +2217,13 @@
         <v>50</v>
       </c>
       <c r="B50" s="9" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="C50" s="5" t="s">
         <v>127</v>
       </c>
       <c r="D50" s="7" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.2">
@@ -2228,13 +2231,13 @@
         <v>51</v>
       </c>
       <c r="B51" s="9" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="C51" s="5" t="s">
         <v>128</v>
       </c>
       <c r="D51" s="7" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="52" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
@@ -2242,13 +2245,13 @@
         <v>52</v>
       </c>
       <c r="B52" s="9" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="C52" s="5" t="s">
         <v>129</v>
       </c>
       <c r="D52" s="7" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.2">
@@ -2256,13 +2259,13 @@
         <v>53</v>
       </c>
       <c r="B53" s="9" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="C53" s="5" t="s">
         <v>130</v>
       </c>
       <c r="D53" s="7" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.2">
@@ -2270,13 +2273,13 @@
         <v>54</v>
       </c>
       <c r="B54" s="9" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="C54" s="5" t="s">
         <v>131</v>
       </c>
       <c r="D54" s="7" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="55" spans="1:4" ht="38.25" x14ac:dyDescent="0.2">
@@ -2284,13 +2287,13 @@
         <v>55</v>
       </c>
       <c r="B55" s="9" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="C55" s="5" t="s">
         <v>132</v>
       </c>
       <c r="D55" s="12" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.2">
@@ -2298,13 +2301,13 @@
         <v>56</v>
       </c>
       <c r="B56" s="9" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="C56" s="5" t="s">
         <v>133</v>
       </c>
       <c r="D56" s="7" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.2">
@@ -2312,13 +2315,13 @@
         <v>57</v>
       </c>
       <c r="B57" s="9" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="C57" s="5" t="s">
         <v>134</v>
       </c>
       <c r="D57" s="7" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="58" spans="1:4" ht="51" x14ac:dyDescent="0.2">
@@ -2326,13 +2329,13 @@
         <v>58</v>
       </c>
       <c r="B58" s="9" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="C58" s="5" t="s">
         <v>135</v>
       </c>
       <c r="D58" s="7" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="59" spans="1:4" ht="51" x14ac:dyDescent="0.2">
@@ -2340,13 +2343,13 @@
         <v>59</v>
       </c>
       <c r="B59" s="9" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="C59" s="5" t="s">
         <v>136</v>
       </c>
       <c r="D59" s="7" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.2">
@@ -2354,13 +2357,13 @@
         <v>60</v>
       </c>
       <c r="B60" s="9" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="C60" s="5" t="s">
         <v>137</v>
       </c>
       <c r="D60" s="7" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="61" spans="1:4" ht="63.75" x14ac:dyDescent="0.2">
@@ -2368,13 +2371,13 @@
         <v>61</v>
       </c>
       <c r="B61" s="9" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="C61" s="5" t="s">
         <v>138</v>
       </c>
       <c r="D61" s="7" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.2">
@@ -2382,13 +2385,13 @@
         <v>62</v>
       </c>
       <c r="B62" s="9" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="C62" s="5" t="s">
         <v>139</v>
       </c>
       <c r="D62" s="7" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.2">
@@ -2396,13 +2399,13 @@
         <v>63</v>
       </c>
       <c r="B63" s="9" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="C63" s="5" t="s">
         <v>140</v>
       </c>
       <c r="D63" s="7" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.2">
@@ -2410,13 +2413,13 @@
         <v>64</v>
       </c>
       <c r="B64" s="9" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="C64" s="5" t="s">
         <v>141</v>
       </c>
       <c r="D64" s="7" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.2">
@@ -2424,13 +2427,13 @@
         <v>65</v>
       </c>
       <c r="B65" s="9" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="C65" s="5" t="s">
         <v>142</v>
       </c>
       <c r="D65" s="7" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.2">
@@ -2438,13 +2441,13 @@
         <v>66</v>
       </c>
       <c r="B66" s="9" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="C66" s="5" t="s">
         <v>143</v>
       </c>
       <c r="D66" s="7" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.2">
@@ -2452,13 +2455,13 @@
         <v>67</v>
       </c>
       <c r="B67" s="9" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="C67" s="5" t="s">
         <v>144</v>
       </c>
       <c r="D67" s="7" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.2">
@@ -2466,13 +2469,13 @@
         <v>68</v>
       </c>
       <c r="B68" s="9" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="C68" s="5" t="s">
         <v>145</v>
       </c>
       <c r="D68" s="7" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.2">
@@ -2480,13 +2483,13 @@
         <v>69</v>
       </c>
       <c r="B69" s="9" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="C69" s="17" t="s">
         <v>146</v>
       </c>
       <c r="D69" s="21" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.2">
@@ -2494,7 +2497,7 @@
         <v>70</v>
       </c>
       <c r="B70" s="9" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="C70" s="17" t="s">
         <v>147</v>
@@ -2506,7 +2509,7 @@
         <v>71</v>
       </c>
       <c r="B71" s="9" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="C71" s="17" t="s">
         <v>148</v>
@@ -2518,13 +2521,13 @@
         <v>72</v>
       </c>
       <c r="B72" s="9" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="C72" s="5" t="s">
         <v>149</v>
       </c>
       <c r="D72" s="7" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.2">
@@ -2532,13 +2535,13 @@
         <v>73</v>
       </c>
       <c r="B73" s="9" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="C73" s="5" t="s">
         <v>150</v>
       </c>
       <c r="D73" s="7" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.2">
@@ -2546,13 +2549,13 @@
         <v>74</v>
       </c>
       <c r="B74" s="9" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="C74" s="5" t="s">
         <v>151</v>
       </c>
       <c r="D74" s="7" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.2">
@@ -2560,13 +2563,13 @@
         <v>75</v>
       </c>
       <c r="B75" s="9" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="C75" s="5" t="s">
         <v>152</v>
       </c>
       <c r="D75" s="7" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.2">
@@ -2574,13 +2577,13 @@
         <v>76</v>
       </c>
       <c r="B76" s="9" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="C76" s="5" t="s">
         <v>153</v>
       </c>
       <c r="D76" s="7" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.2">
@@ -2588,13 +2591,13 @@
         <v>77</v>
       </c>
       <c r="B77" s="9" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="C77" s="5" t="s">
         <v>154</v>
       </c>
       <c r="D77" s="7" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.2">
@@ -2602,13 +2605,13 @@
         <v>78</v>
       </c>
       <c r="B78" s="9" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="C78" s="5" t="s">
         <v>155</v>
       </c>
       <c r="D78" s="7" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.2">
@@ -2616,7 +2619,7 @@
         <v>156</v>
       </c>
       <c r="D79" s="7" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.2">
@@ -2624,7 +2627,7 @@
         <v>157</v>
       </c>
       <c r="D80" s="7" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="81" spans="3:4" x14ac:dyDescent="0.2">
@@ -2632,7 +2635,7 @@
         <v>158</v>
       </c>
       <c r="D81" s="7" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="82" spans="3:4" x14ac:dyDescent="0.2">
@@ -2640,7 +2643,7 @@
         <v>159</v>
       </c>
       <c r="D82" s="7" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="83" spans="3:4" x14ac:dyDescent="0.2">
@@ -2648,7 +2651,7 @@
         <v>160</v>
       </c>
       <c r="D83" s="7" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="84" spans="3:4" x14ac:dyDescent="0.2">
@@ -2656,7 +2659,7 @@
         <v>161</v>
       </c>
       <c r="D84" s="7" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="85" spans="3:4" x14ac:dyDescent="0.2">
@@ -2664,7 +2667,7 @@
         <v>162</v>
       </c>
       <c r="D85" s="7" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="86" spans="3:4" x14ac:dyDescent="0.2">
@@ -2672,7 +2675,7 @@
         <v>163</v>
       </c>
       <c r="D86" s="7" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="87" spans="3:4" x14ac:dyDescent="0.2">
@@ -2680,7 +2683,7 @@
         <v>164</v>
       </c>
       <c r="D87" s="7" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="88" spans="3:4" x14ac:dyDescent="0.2">
@@ -2688,7 +2691,7 @@
         <v>165</v>
       </c>
       <c r="D88" s="7" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="89" spans="3:4" x14ac:dyDescent="0.2">
@@ -2696,7 +2699,7 @@
         <v>166</v>
       </c>
       <c r="D89" s="7" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
     </row>
     <row r="90" spans="3:4" x14ac:dyDescent="0.2">
@@ -2704,7 +2707,7 @@
         <v>167</v>
       </c>
       <c r="D90" s="7" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="91" spans="3:4" x14ac:dyDescent="0.2">
@@ -2712,7 +2715,7 @@
         <v>168</v>
       </c>
       <c r="D91" s="7" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="92" spans="3:4" x14ac:dyDescent="0.2">
@@ -2720,7 +2723,7 @@
         <v>169</v>
       </c>
       <c r="D92" s="7" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="93" spans="3:4" x14ac:dyDescent="0.2">
@@ -2728,7 +2731,7 @@
         <v>170</v>
       </c>
       <c r="D93" s="7" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="94" spans="3:4" x14ac:dyDescent="0.2">
@@ -2736,7 +2739,7 @@
         <v>171</v>
       </c>
       <c r="D94" s="7" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="95" spans="3:4" x14ac:dyDescent="0.2">
@@ -2744,7 +2747,7 @@
         <v>172</v>
       </c>
       <c r="D95" s="7" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="96" spans="3:4" x14ac:dyDescent="0.2">
@@ -2752,7 +2755,7 @@
         <v>173</v>
       </c>
       <c r="D96" s="7" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="97" spans="3:4" x14ac:dyDescent="0.2">
@@ -2760,7 +2763,7 @@
         <v>174</v>
       </c>
       <c r="D97" s="7" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="98" spans="3:4" x14ac:dyDescent="0.2">
@@ -2768,7 +2771,7 @@
         <v>175</v>
       </c>
       <c r="D98" s="7" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="99" spans="3:4" x14ac:dyDescent="0.2">
@@ -2776,7 +2779,7 @@
         <v>176</v>
       </c>
       <c r="D99" s="7" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="100" spans="3:4" x14ac:dyDescent="0.2">
@@ -2784,7 +2787,7 @@
         <v>177</v>
       </c>
       <c r="D100" s="7" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="101" spans="3:4" x14ac:dyDescent="0.2">
@@ -2792,7 +2795,7 @@
         <v>178</v>
       </c>
       <c r="D101" s="7" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="102" spans="3:4" x14ac:dyDescent="0.2">
@@ -2800,7 +2803,7 @@
         <v>179</v>
       </c>
       <c r="D102" s="20" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
     <row r="103" spans="3:4" x14ac:dyDescent="0.2">
@@ -2814,7 +2817,7 @@
         <v>181</v>
       </c>
       <c r="D104" s="7" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="105" spans="3:4" x14ac:dyDescent="0.2">
@@ -2822,7 +2825,7 @@
         <v>182</v>
       </c>
       <c r="D105" s="7" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="106" spans="3:4" x14ac:dyDescent="0.2">
@@ -2830,7 +2833,7 @@
         <v>183</v>
       </c>
       <c r="D106" s="7" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="107" spans="3:4" x14ac:dyDescent="0.2">
@@ -2838,7 +2841,7 @@
         <v>184</v>
       </c>
       <c r="D107" s="7" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="108" spans="3:4" x14ac:dyDescent="0.2">
@@ -2846,7 +2849,7 @@
         <v>185</v>
       </c>
       <c r="D108" s="7" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="109" spans="3:4" x14ac:dyDescent="0.2">
@@ -2854,7 +2857,7 @@
         <v>186</v>
       </c>
       <c r="D109" s="7" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="110" spans="3:4" x14ac:dyDescent="0.2">
@@ -2862,7 +2865,7 @@
         <v>187</v>
       </c>
       <c r="D110" s="7" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="111" spans="3:4" x14ac:dyDescent="0.2">
@@ -2870,7 +2873,7 @@
         <v>188</v>
       </c>
       <c r="D111" s="7" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
     </row>
     <row r="112" spans="3:4" x14ac:dyDescent="0.2">
@@ -2878,7 +2881,7 @@
         <v>189</v>
       </c>
       <c r="D112" s="7" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="113" spans="3:4" x14ac:dyDescent="0.2">
@@ -2886,7 +2889,7 @@
         <v>190</v>
       </c>
       <c r="D113" s="7" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="114" spans="3:4" x14ac:dyDescent="0.2">
@@ -2894,7 +2897,7 @@
         <v>191</v>
       </c>
       <c r="D114" s="7" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="115" spans="3:4" x14ac:dyDescent="0.2">
@@ -2902,7 +2905,7 @@
         <v>192</v>
       </c>
       <c r="D115" s="7" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="116" spans="3:4" x14ac:dyDescent="0.2">
@@ -2910,7 +2913,7 @@
         <v>193</v>
       </c>
       <c r="D116" s="7" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="117" spans="3:4" x14ac:dyDescent="0.2">
@@ -2918,7 +2921,7 @@
         <v>194</v>
       </c>
       <c r="D117" s="7" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="118" spans="3:4" x14ac:dyDescent="0.2">
@@ -2926,7 +2929,7 @@
         <v>195</v>
       </c>
       <c r="D118" s="7" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="119" spans="3:4" x14ac:dyDescent="0.2">
@@ -2934,7 +2937,7 @@
         <v>196</v>
       </c>
       <c r="D119" s="7" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="120" spans="3:4" x14ac:dyDescent="0.2">
@@ -2942,7 +2945,7 @@
         <v>197</v>
       </c>
       <c r="D120" s="7" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="121" spans="3:4" x14ac:dyDescent="0.2">
@@ -2950,7 +2953,7 @@
         <v>198</v>
       </c>
       <c r="D121" s="21" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
     </row>
     <row r="122" spans="3:4" x14ac:dyDescent="0.2">
@@ -2964,7 +2967,7 @@
         <v>200</v>
       </c>
       <c r="D123" s="7" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="124" spans="3:4" x14ac:dyDescent="0.2">
@@ -2972,7 +2975,7 @@
         <v>201</v>
       </c>
       <c r="D124" s="7" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="125" spans="3:4" x14ac:dyDescent="0.2">
@@ -2980,7 +2983,7 @@
         <v>202</v>
       </c>
       <c r="D125" s="7" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="126" spans="3:4" x14ac:dyDescent="0.2">
@@ -2988,7 +2991,7 @@
         <v>203</v>
       </c>
       <c r="D126" s="7" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="127" spans="3:4" x14ac:dyDescent="0.2">
@@ -2996,7 +2999,7 @@
         <v>204</v>
       </c>
       <c r="D127" s="7" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="128" spans="3:4" x14ac:dyDescent="0.2">
@@ -3004,7 +3007,7 @@
         <v>205</v>
       </c>
       <c r="D128" s="7" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="129" spans="3:4" x14ac:dyDescent="0.2">
@@ -3012,7 +3015,7 @@
         <v>206</v>
       </c>
       <c r="D129" s="7" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="130" spans="3:4" x14ac:dyDescent="0.2">
@@ -3020,7 +3023,7 @@
         <v>207</v>
       </c>
       <c r="D130" s="7" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
     </row>
     <row r="131" spans="3:4" x14ac:dyDescent="0.2">
@@ -3028,7 +3031,7 @@
         <v>208</v>
       </c>
       <c r="D131" s="7" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="132" spans="3:4" x14ac:dyDescent="0.2">
@@ -3036,7 +3039,7 @@
         <v>209</v>
       </c>
       <c r="D132" s="7" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="133" spans="3:4" x14ac:dyDescent="0.2">
@@ -3044,7 +3047,7 @@
         <v>210</v>
       </c>
       <c r="D133" s="7" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="134" spans="3:4" x14ac:dyDescent="0.2">
@@ -3052,7 +3055,7 @@
         <v>211</v>
       </c>
       <c r="D134" s="7" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="135" spans="3:4" x14ac:dyDescent="0.2">
@@ -3060,7 +3063,7 @@
         <v>212</v>
       </c>
       <c r="D135" s="7" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
     </row>
     <row r="136" spans="3:4" x14ac:dyDescent="0.2">
@@ -3068,7 +3071,7 @@
         <v>213</v>
       </c>
       <c r="D136" s="7" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
     </row>
     <row r="137" spans="3:4" x14ac:dyDescent="0.2">
@@ -3076,7 +3079,7 @@
         <v>214</v>
       </c>
       <c r="D137" s="7" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="138" spans="3:4" x14ac:dyDescent="0.2">
@@ -3084,7 +3087,7 @@
         <v>215</v>
       </c>
       <c r="D138" s="7" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="139" spans="3:4" x14ac:dyDescent="0.2">
@@ -3092,7 +3095,7 @@
         <v>216</v>
       </c>
       <c r="D139" s="7" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="140" spans="3:4" x14ac:dyDescent="0.2">
@@ -3100,7 +3103,7 @@
         <v>217</v>
       </c>
       <c r="D140" s="7" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
     </row>
     <row r="141" spans="3:4" x14ac:dyDescent="0.2">
@@ -3108,7 +3111,7 @@
         <v>218</v>
       </c>
       <c r="D141" s="7" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="142" spans="3:4" x14ac:dyDescent="0.2">
@@ -3116,7 +3119,7 @@
         <v>219</v>
       </c>
       <c r="D142" s="7" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="143" spans="3:4" x14ac:dyDescent="0.2">
@@ -3124,7 +3127,7 @@
         <v>220</v>
       </c>
       <c r="D143" s="7" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="144" spans="3:4" x14ac:dyDescent="0.2">
@@ -3132,7 +3135,7 @@
         <v>221</v>
       </c>
       <c r="D144" s="7" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="145" spans="3:4" x14ac:dyDescent="0.2">
@@ -3140,7 +3143,7 @@
         <v>222</v>
       </c>
       <c r="D145" s="7" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="146" spans="3:4" x14ac:dyDescent="0.2">
@@ -3148,7 +3151,7 @@
         <v>223</v>
       </c>
       <c r="D146" s="7" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="147" spans="3:4" x14ac:dyDescent="0.2">
@@ -3156,7 +3159,7 @@
         <v>224</v>
       </c>
       <c r="D147" s="7" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="148" spans="3:4" x14ac:dyDescent="0.2">
@@ -3164,7 +3167,7 @@
         <v>225</v>
       </c>
       <c r="D148" s="7" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="149" spans="3:4" x14ac:dyDescent="0.2">
@@ -3172,7 +3175,7 @@
         <v>226</v>
       </c>
       <c r="D149" s="7" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="150" spans="3:4" x14ac:dyDescent="0.2">
@@ -3180,7 +3183,7 @@
         <v>227</v>
       </c>
       <c r="D150" s="7" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="151" spans="3:4" x14ac:dyDescent="0.2">
@@ -3188,7 +3191,7 @@
         <v>228</v>
       </c>
       <c r="D151" s="7" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
     <row r="152" spans="3:4" x14ac:dyDescent="0.2">
@@ -3196,7 +3199,7 @@
         <v>229</v>
       </c>
       <c r="D152" s="7" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="153" spans="3:4" x14ac:dyDescent="0.2">
@@ -3204,7 +3207,7 @@
         <v>230</v>
       </c>
       <c r="D153" s="7" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="154" spans="3:4" x14ac:dyDescent="0.2">
@@ -3212,7 +3215,7 @@
         <v>231</v>
       </c>
       <c r="D154" s="7" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="155" spans="3:4" x14ac:dyDescent="0.2">
@@ -3220,7 +3223,7 @@
         <v>232</v>
       </c>
       <c r="D155" s="7" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
     </row>
     <row r="156" spans="3:4" x14ac:dyDescent="0.2">
@@ -3228,7 +3231,7 @@
         <v>233</v>
       </c>
       <c r="D156" s="7" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="157" spans="3:4" x14ac:dyDescent="0.2">
@@ -3236,7 +3239,7 @@
         <v>234</v>
       </c>
       <c r="D157" s="7" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="158" spans="3:4" x14ac:dyDescent="0.2">
@@ -3244,7 +3247,7 @@
         <v>235</v>
       </c>
       <c r="D158" s="7" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="159" spans="3:4" x14ac:dyDescent="0.2">
@@ -3252,7 +3255,7 @@
         <v>236</v>
       </c>
       <c r="D159" s="7" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
     </row>
     <row r="160" spans="3:4" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -3260,7 +3263,7 @@
         <v>237</v>
       </c>
       <c r="D160" s="7" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="161" spans="3:4" x14ac:dyDescent="0.2">
@@ -3268,7 +3271,7 @@
         <v>238</v>
       </c>
       <c r="D161" s="7" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="162" spans="3:4" x14ac:dyDescent="0.2">
@@ -3276,7 +3279,7 @@
         <v>239</v>
       </c>
       <c r="D162" s="7" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="163" spans="3:4" x14ac:dyDescent="0.2">
@@ -3284,7 +3287,7 @@
         <v>240</v>
       </c>
       <c r="D163" s="7" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="164" spans="3:4" x14ac:dyDescent="0.2">
@@ -3292,7 +3295,7 @@
         <v>241</v>
       </c>
       <c r="D164" s="7" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="165" spans="3:4" x14ac:dyDescent="0.2">
@@ -3300,7 +3303,7 @@
         <v>242</v>
       </c>
       <c r="D165" s="7" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="166" spans="3:4" x14ac:dyDescent="0.2">
@@ -3308,7 +3311,7 @@
         <v>243</v>
       </c>
       <c r="D166" s="7" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="167" spans="3:4" x14ac:dyDescent="0.2">
@@ -3316,7 +3319,7 @@
         <v>244</v>
       </c>
       <c r="D167" s="7" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
     </row>
     <row r="168" spans="3:4" x14ac:dyDescent="0.2">
@@ -3324,7 +3327,7 @@
         <v>245</v>
       </c>
       <c r="D168" s="7" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="169" spans="3:4" x14ac:dyDescent="0.2">
@@ -3332,7 +3335,7 @@
         <v>246</v>
       </c>
       <c r="D169" s="7" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
     </row>
     <row r="170" spans="3:4" x14ac:dyDescent="0.2">
@@ -3340,7 +3343,7 @@
         <v>247</v>
       </c>
       <c r="D170" s="7" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="171" spans="3:4" x14ac:dyDescent="0.2">
@@ -3348,7 +3351,7 @@
         <v>248</v>
       </c>
       <c r="D171" s="7" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="172" spans="3:4" x14ac:dyDescent="0.2">
@@ -3356,7 +3359,7 @@
         <v>249</v>
       </c>
       <c r="D172" s="7" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="173" spans="3:4" x14ac:dyDescent="0.2">
@@ -3364,7 +3367,7 @@
         <v>250</v>
       </c>
       <c r="D173" s="7" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="174" spans="3:4" x14ac:dyDescent="0.2">
@@ -3372,7 +3375,7 @@
         <v>251</v>
       </c>
       <c r="D174" s="7" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="175" spans="3:4" x14ac:dyDescent="0.2">
@@ -3380,7 +3383,7 @@
         <v>252</v>
       </c>
       <c r="D175" s="7" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="176" spans="3:4" x14ac:dyDescent="0.2">
@@ -3388,7 +3391,7 @@
         <v>253</v>
       </c>
       <c r="D176" s="7" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="177" spans="3:4" x14ac:dyDescent="0.2">
@@ -3396,7 +3399,7 @@
         <v>254</v>
       </c>
       <c r="D177" s="7" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
     </row>
     <row r="178" spans="3:4" x14ac:dyDescent="0.2">
@@ -3404,7 +3407,7 @@
         <v>255</v>
       </c>
       <c r="D178" s="7" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="179" spans="3:4" x14ac:dyDescent="0.2">
@@ -3412,7 +3415,7 @@
         <v>256</v>
       </c>
       <c r="D179" s="7" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="180" spans="3:4" x14ac:dyDescent="0.2">
@@ -3420,7 +3423,7 @@
         <v>257</v>
       </c>
       <c r="D180" s="7" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="181" spans="3:4" x14ac:dyDescent="0.2">
@@ -3428,7 +3431,7 @@
         <v>258</v>
       </c>
       <c r="D181" s="7" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="182" spans="3:4" x14ac:dyDescent="0.2">
@@ -3436,7 +3439,7 @@
         <v>259</v>
       </c>
       <c r="D182" s="7" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="183" spans="3:4" x14ac:dyDescent="0.2">
@@ -3444,7 +3447,7 @@
         <v>260</v>
       </c>
       <c r="D183" s="7" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
   </sheetData>
